--- a/Survey_Data_Availability_Plot.xlsx
+++ b/Survey_Data_Availability_Plot.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\draft github\draft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCBCA83-59A6-4F0A-BE2E-A2FD85AA22C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDA18B0-1555-4A09-A94F-DA3802C5BCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="23226" windowHeight="13866" xr2:uid="{B65649F5-5A57-402F-8E23-597A74B654A6}"/>
   </bookViews>
@@ -74,9 +74,6 @@
     <t>2017-18</t>
   </si>
   <si>
-    <t>Cote d'Ivore</t>
-  </si>
-  <si>
     <t>DRC</t>
   </si>
   <si>
@@ -204,6 +201,9 @@
   </si>
   <si>
     <t>Only HIVST uptake Question (ever used hivst)</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
   </si>
 </sst>
 </file>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57ABB3C5-06E4-4A29-B08E-319E1D706606}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -635,13 +635,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.5">
@@ -692,7 +692,7 @@
         <v>2021</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>2020</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -749,10 +749,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>2021</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>2017</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -812,7 +812,7 @@
         <v>2020</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -826,13 +826,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -846,13 +846,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1">
         <v>2021</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -866,13 +866,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1">
         <v>2018</v>
@@ -906,13 +906,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1">
         <v>2021</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -926,13 +926,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
         <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -946,13 +946,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
         <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -966,13 +966,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="1">
         <v>2022</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -986,13 +986,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1">
         <v>2018</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1">
         <v>2022</v>
@@ -1026,13 +1026,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1046,13 +1046,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="1">
         <v>2021</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1066,13 +1066,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1086,13 +1086,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1">
         <v>2018</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1106,13 +1106,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1126,13 +1126,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1146,13 +1146,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1">
         <v>2017</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1166,13 +1166,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>2019</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1">
         <v>2016</v>
@@ -1206,13 +1206,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1">
         <v>2022</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1226,13 +1226,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="1">
         <v>2016</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1246,13 +1246,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" s="1">
         <v>2018</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1266,13 +1266,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" s="1">
         <v>2015</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1286,13 +1286,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" s="1">
         <v>2018</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1306,13 +1306,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="1">
         <v>2019</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1326,13 +1326,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="1">
         <v>2017</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1346,13 +1346,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="1">
         <v>2018</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1366,13 +1366,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="1">
         <v>2017</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1386,13 +1386,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1">
         <v>2018</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1406,13 +1406,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="1">
         <v>2018</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1426,13 +1426,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="1">
         <v>2019</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1446,13 +1446,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" s="1">
         <v>2019</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1466,13 +1466,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" s="1">
         <v>2017</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1486,13 +1486,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="1">
         <v>2017</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1506,13 +1506,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1">
         <v>2022</v>
       </c>
       <c r="C45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1526,13 +1526,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="1">
         <v>2021</v>
@@ -1566,13 +1566,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" s="1">
         <v>2019</v>
       </c>
       <c r="C48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D48">
         <v>0</v>
